--- a/data/raw_data/indexes_to_scrap.xlsx
+++ b/data/raw_data/indexes_to_scrap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27518"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hsluzern-my.sharepoint.com/personal/chris_imholz_stud_hslu_ch/Documents/FS24/CIP/CIP Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodri\OneDrive\Documentos\GitHub\hslu-cip\data\raw_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="8_{12433795-6149-4C0D-A781-282733E9705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B1DB654-B3B3-4368-8B63-7AE1AA63CA09}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C7CD2D3-DE1B-4C62-9835-6CF4CBC96864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-5590" windowWidth="38620" windowHeight="21100" xr2:uid="{39B9687E-956F-414F-B66B-F2EA72C29F00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39B9687E-956F-414F-B66B-F2EA72C29F00}"/>
   </bookViews>
   <sheets>
     <sheet name="page" sheetId="1" r:id="rId1"/>
@@ -1314,7 +1314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,12 +1329,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1349,8 +1355,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1687,23 +1694,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B9CC07B-61B3-47B3-98E6-3C0426A7A5C1}">
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1732,7 +1739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1790,7 +1797,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1819,7 +1826,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1848,7 +1855,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -1877,7 +1884,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1906,7 +1913,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -1935,7 +1942,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1955,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1984,7 +1991,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -2010,7 +2017,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -2039,7 +2046,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2068,7 +2075,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2126,7 +2133,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -2155,7 +2162,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2184,7 +2191,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>48</v>
       </c>
@@ -2213,7 +2220,7 @@
         <v>32.700000000000003</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2242,7 +2249,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -2271,7 +2278,7 @@
         <v>21.1</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -2300,7 +2307,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>56</v>
       </c>
@@ -2329,7 +2336,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>58</v>
       </c>
@@ -2358,7 +2365,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>60</v>
       </c>
@@ -2387,7 +2394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -2416,7 +2423,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>64</v>
       </c>
@@ -2445,7 +2452,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>66</v>
       </c>
@@ -2474,7 +2481,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -2503,7 +2510,7 @@
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2532,7 +2539,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>72</v>
       </c>
@@ -2561,7 +2568,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>74</v>
       </c>
@@ -2590,7 +2597,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -2616,7 +2623,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -2674,7 +2681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>82</v>
       </c>
@@ -2703,7 +2710,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>84</v>
       </c>
@@ -2732,7 +2739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>86</v>
       </c>
@@ -2761,7 +2768,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>88</v>
       </c>
@@ -2790,7 +2797,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -2819,7 +2826,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -2848,7 +2855,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -2877,7 +2884,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>96</v>
       </c>
@@ -2903,7 +2910,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -2932,7 +2939,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>101</v>
       </c>
@@ -2952,7 +2959,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>103</v>
       </c>
@@ -2981,7 +2988,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>105</v>
       </c>
@@ -3010,7 +3017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3039,7 +3046,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>-12.8</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>109</v>
       </c>
@@ -3097,7 +3104,7 @@
         <v>48.7</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>111</v>
       </c>
@@ -3126,7 +3133,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -3155,7 +3162,7 @@
         <v>28.3</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>115</v>
       </c>
@@ -3184,7 +3191,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>118</v>
       </c>
@@ -3213,7 +3220,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>120</v>
       </c>
@@ -3242,7 +3249,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>122</v>
       </c>
@@ -3271,7 +3278,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>124</v>
       </c>
@@ -3297,7 +3304,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>126</v>
       </c>
@@ -3326,7 +3333,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>128</v>
       </c>
@@ -3355,7 +3362,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>130</v>
       </c>
@@ -3384,7 +3391,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>132</v>
       </c>
@@ -3413,7 +3420,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>134</v>
       </c>
@@ -3442,7 +3449,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>136</v>
       </c>
@@ -3471,7 +3478,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>139</v>
       </c>
@@ -3500,7 +3507,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>141</v>
       </c>
@@ -3520,7 +3527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>143</v>
       </c>
@@ -3549,7 +3556,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>145</v>
       </c>
@@ -3578,7 +3585,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>147</v>
       </c>
@@ -3607,7 +3614,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>153</v>
       </c>
@@ -3636,7 +3643,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>155</v>
       </c>
@@ -3665,7 +3672,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>157</v>
       </c>
@@ -3694,7 +3701,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>159</v>
       </c>
@@ -3723,7 +3730,7 @@
         <v>-10.199999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>161</v>
       </c>
@@ -3752,7 +3759,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>163</v>
       </c>
@@ -3781,7 +3788,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>165</v>
       </c>
@@ -3810,7 +3817,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>167</v>
       </c>
@@ -3839,7 +3846,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>169</v>
       </c>
@@ -3859,7 +3866,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>171</v>
       </c>
@@ -3885,7 +3892,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>173</v>
       </c>
@@ -3914,7 +3921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>175</v>
       </c>
@@ -3943,7 +3950,7 @@
         <v>35.6</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>177</v>
       </c>
@@ -3972,7 +3979,7 @@
         <v>-5.5</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>179</v>
       </c>
@@ -4001,7 +4008,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>181</v>
       </c>
@@ -4030,7 +4037,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>183</v>
       </c>
@@ -4056,7 +4063,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>185</v>
       </c>
@@ -4085,36 +4092,36 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
-      <c r="A85" t="s">
+    <row r="85" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="1">
         <v>2.7</v>
       </c>
-      <c r="H85">
+      <c r="H85" s="1">
         <v>0.6</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="1">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>189</v>
       </c>
@@ -4133,8 +4140,17 @@
       <c r="F86" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="87" spans="1:9">
+      <c r="G86">
+        <v>2.9</v>
+      </c>
+      <c r="H86">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I86">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>195</v>
       </c>
@@ -4153,8 +4169,14 @@
       <c r="F87" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>197</v>
       </c>
@@ -4173,8 +4195,14 @@
       <c r="F88" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="89" spans="1:9">
+      <c r="H88">
+        <v>13.1</v>
+      </c>
+      <c r="I88">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>199</v>
       </c>
@@ -4193,8 +4221,17 @@
       <c r="F89" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="90" spans="1:9">
+      <c r="G89">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H89">
+        <v>25.3</v>
+      </c>
+      <c r="I89">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>201</v>
       </c>
@@ -4213,8 +4250,17 @@
       <c r="F90" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="G90">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H90">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="I90">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>203</v>
       </c>
@@ -4233,8 +4279,17 @@
       <c r="F91" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="G91">
+        <v>0.7</v>
+      </c>
+      <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>206</v>
       </c>
@@ -4253,8 +4308,17 @@
       <c r="F92" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="93" spans="1:9">
+      <c r="G92">
+        <v>10.8</v>
+      </c>
+      <c r="H92">
+        <v>27.8</v>
+      </c>
+      <c r="I92">
+        <v>23.3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>208</v>
       </c>
@@ -4273,8 +4337,17 @@
       <c r="F93" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="G93">
+        <v>0.5</v>
+      </c>
+      <c r="H93">
+        <v>1.2</v>
+      </c>
+      <c r="I93">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>210</v>
       </c>
@@ -4293,8 +4366,17 @@
       <c r="F94" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="95" spans="1:9">
+      <c r="G94">
+        <v>3.1</v>
+      </c>
+      <c r="H94">
+        <v>6.3</v>
+      </c>
+      <c r="I94">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>212</v>
       </c>
@@ -4313,8 +4395,17 @@
       <c r="F95" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="96" spans="1:9">
+      <c r="G95">
+        <v>6</v>
+      </c>
+      <c r="H95">
+        <v>27.3</v>
+      </c>
+      <c r="I95">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>214</v>
       </c>
@@ -4334,7 +4425,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>216</v>
       </c>
@@ -4353,8 +4444,17 @@
       <c r="F97" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>4.2</v>
+      </c>
+      <c r="H97">
+        <v>17.7</v>
+      </c>
+      <c r="I97">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>218</v>
       </c>
@@ -4373,8 +4473,17 @@
       <c r="F98" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="99" spans="1:6">
+      <c r="G98">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="H98">
+        <v>6.3</v>
+      </c>
+      <c r="I98">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>220</v>
       </c>
@@ -4393,8 +4502,14 @@
       <c r="F99" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="H99">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="I99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>222</v>
       </c>
@@ -4413,8 +4528,17 @@
       <c r="F100" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>2.5</v>
+      </c>
+      <c r="H100">
+        <v>12.5</v>
+      </c>
+      <c r="I100">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>224</v>
       </c>
@@ -4433,8 +4557,17 @@
       <c r="F101" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="102" spans="1:6">
+      <c r="G101">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="H101">
+        <v>21.4</v>
+      </c>
+      <c r="I101">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>226</v>
       </c>
@@ -4453,8 +4586,14 @@
       <c r="F102" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>1.5</v>
+      </c>
+      <c r="H102">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>232</v>
       </c>
@@ -4473,8 +4612,14 @@
       <c r="F103" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>234</v>
       </c>
@@ -4493,8 +4638,17 @@
       <c r="F104" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="105" spans="1:6">
+      <c r="G104">
+        <v>6.9</v>
+      </c>
+      <c r="H104">
+        <v>11.3</v>
+      </c>
+      <c r="I104">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>236</v>
       </c>
@@ -4513,8 +4667,17 @@
       <c r="F105" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="106" spans="1:6">
+      <c r="G105">
+        <v>-24.4</v>
+      </c>
+      <c r="H105">
+        <v>440.7</v>
+      </c>
+      <c r="I105">
+        <v>-58.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>240</v>
       </c>
@@ -4533,8 +4696,17 @@
       <c r="F106" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="107" spans="1:6">
+      <c r="G106">
+        <v>6</v>
+      </c>
+      <c r="H106">
+        <v>13.8</v>
+      </c>
+      <c r="I106">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>242</v>
       </c>
@@ -4553,8 +4725,17 @@
       <c r="F107" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="108" spans="1:6">
+      <c r="G107">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H107">
+        <v>6.9</v>
+      </c>
+      <c r="I107">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>244</v>
       </c>
@@ -4573,8 +4754,17 @@
       <c r="F108" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="109" spans="1:6">
+      <c r="G108">
+        <v>-41.3</v>
+      </c>
+      <c r="H108">
+        <v>173.3</v>
+      </c>
+      <c r="I108">
+        <v>560.36</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>246</v>
       </c>
@@ -4593,8 +4783,17 @@
       <c r="F109" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="110" spans="1:6">
+      <c r="G109">
+        <v>0.2</v>
+      </c>
+      <c r="H109">
+        <v>0.9</v>
+      </c>
+      <c r="I109">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>248</v>
       </c>
@@ -4613,8 +4812,17 @@
       <c r="F110" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="111" spans="1:6">
+      <c r="G110">
+        <v>5.6</v>
+      </c>
+      <c r="H110">
+        <v>14.8</v>
+      </c>
+      <c r="I110">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>250</v>
       </c>
@@ -4633,8 +4841,17 @@
       <c r="F111" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="112" spans="1:6">
+      <c r="G111">
+        <v>1.3</v>
+      </c>
+      <c r="H111">
+        <v>5.6</v>
+      </c>
+      <c r="I111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>252</v>
       </c>
@@ -4653,8 +4870,17 @@
       <c r="F112" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="113" spans="1:6">
+      <c r="G112">
+        <v>5.5</v>
+      </c>
+      <c r="H112">
+        <v>16</v>
+      </c>
+      <c r="I112">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>254</v>
       </c>
@@ -4673,8 +4899,17 @@
       <c r="F113" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="114" spans="1:6">
+      <c r="G113">
+        <v>4.8</v>
+      </c>
+      <c r="H113">
+        <v>6.9</v>
+      </c>
+      <c r="I113">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>256</v>
       </c>
@@ -4693,8 +4928,17 @@
       <c r="F114" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="115" spans="1:6">
+      <c r="G114">
+        <v>6</v>
+      </c>
+      <c r="H114">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I114">
+        <v>-11.7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>258</v>
       </c>
@@ -4713,8 +4957,17 @@
       <c r="F115" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="116" spans="1:6">
+      <c r="G115">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H115">
+        <v>3.3</v>
+      </c>
+      <c r="I115">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>260</v>
       </c>
@@ -4733,8 +4986,17 @@
       <c r="F116" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="117" spans="1:6">
+      <c r="G116">
+        <v>7.6</v>
+      </c>
+      <c r="H116">
+        <v>22.7</v>
+      </c>
+      <c r="I116">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>262</v>
       </c>
@@ -4753,8 +5015,17 @@
       <c r="F117" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="118" spans="1:6">
+      <c r="G117">
+        <v>2.5</v>
+      </c>
+      <c r="H117">
+        <v>-15</v>
+      </c>
+      <c r="I117">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>264</v>
       </c>
@@ -4773,8 +5044,17 @@
       <c r="F118" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="119" spans="1:6">
+      <c r="G118">
+        <v>7.7</v>
+      </c>
+      <c r="H118">
+        <v>11.7</v>
+      </c>
+      <c r="I118">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>266</v>
       </c>
@@ -4793,8 +5073,17 @@
       <c r="F119" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="120" spans="1:6">
+      <c r="G119">
+        <v>4.5</v>
+      </c>
+      <c r="H119">
+        <v>11.4</v>
+      </c>
+      <c r="I119">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>268</v>
       </c>
@@ -4813,8 +5102,17 @@
       <c r="F120" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="121" spans="1:6">
+      <c r="G120">
+        <v>6.7</v>
+      </c>
+      <c r="H120">
+        <v>17.8</v>
+      </c>
+      <c r="I120">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>270</v>
       </c>
@@ -4833,8 +5131,14 @@
       <c r="F121" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="122" spans="1:6">
+      <c r="G121">
+        <v>-1.2</v>
+      </c>
+      <c r="I121">
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>272</v>
       </c>
@@ -4853,8 +5157,17 @@
       <c r="F122" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="123" spans="1:6">
+      <c r="G122">
+        <v>3.5</v>
+      </c>
+      <c r="H122">
+        <v>4.8</v>
+      </c>
+      <c r="I122">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>274</v>
       </c>
@@ -4873,8 +5186,17 @@
       <c r="F123" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="124" spans="1:6">
+      <c r="G123">
+        <v>3.2</v>
+      </c>
+      <c r="H123">
+        <v>11.6</v>
+      </c>
+      <c r="I123">
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>276</v>
       </c>
@@ -4893,8 +5215,17 @@
       <c r="F124" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="125" spans="1:6">
+      <c r="G124">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="H124">
+        <v>-34</v>
+      </c>
+      <c r="I124">
+        <v>-13.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>278</v>
       </c>
@@ -4913,8 +5244,17 @@
       <c r="F125" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="126" spans="1:6">
+      <c r="G125">
+        <v>7.1</v>
+      </c>
+      <c r="H125">
+        <v>11.8</v>
+      </c>
+      <c r="I125">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>280</v>
       </c>
@@ -4933,8 +5273,17 @@
       <c r="F126" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="127" spans="1:6">
+      <c r="G126">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="H126">
+        <v>28.8</v>
+      </c>
+      <c r="I126">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>282</v>
       </c>
@@ -4953,8 +5302,17 @@
       <c r="F127" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
+      <c r="G127">
+        <v>6.9</v>
+      </c>
+      <c r="H127">
+        <v>14.3</v>
+      </c>
+      <c r="I127">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>284</v>
       </c>
@@ -4973,8 +5331,17 @@
       <c r="F128" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="129" spans="1:6">
+      <c r="G128">
+        <v>4</v>
+      </c>
+      <c r="H128">
+        <v>14.5</v>
+      </c>
+      <c r="I128">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>286</v>
       </c>
@@ -4993,8 +5360,17 @@
       <c r="F129" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="130" spans="1:6">
+      <c r="G129">
+        <v>15.8</v>
+      </c>
+      <c r="H129">
+        <v>10.8</v>
+      </c>
+      <c r="I129">
+        <v>32.9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>292</v>
       </c>
@@ -5013,8 +5389,17 @@
       <c r="F130" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="131" spans="1:6">
+      <c r="G130">
+        <v>11.9</v>
+      </c>
+      <c r="H130">
+        <v>31</v>
+      </c>
+      <c r="I130">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>295</v>
       </c>
@@ -5033,8 +5418,14 @@
       <c r="F131" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="132" spans="1:6">
+      <c r="G131">
+        <v>1.2</v>
+      </c>
+      <c r="H131">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>297</v>
       </c>
@@ -5053,8 +5444,17 @@
       <c r="F132" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="133" spans="1:6">
+      <c r="G132">
+        <v>14.9</v>
+      </c>
+      <c r="H132">
+        <v>23.2</v>
+      </c>
+      <c r="I132">
+        <v>38.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>299</v>
       </c>
@@ -5073,8 +5473,17 @@
       <c r="F133" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="134" spans="1:6">
+      <c r="G133">
+        <v>8.5</v>
+      </c>
+      <c r="H133">
+        <v>28</v>
+      </c>
+      <c r="I133">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>302</v>
       </c>
@@ -5093,8 +5502,17 @@
       <c r="F134" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="135" spans="1:6">
+      <c r="G134">
+        <v>3.5</v>
+      </c>
+      <c r="H134">
+        <v>5.8</v>
+      </c>
+      <c r="I134">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>304</v>
       </c>
@@ -5113,8 +5531,17 @@
       <c r="F135" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="136" spans="1:6">
+      <c r="G135">
+        <v>12.7</v>
+      </c>
+      <c r="H135">
+        <v>37.4</v>
+      </c>
+      <c r="I135">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>306</v>
       </c>
@@ -5133,8 +5560,17 @@
       <c r="F136" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="137" spans="1:6">
+      <c r="G136">
+        <v>19.3</v>
+      </c>
+      <c r="H136">
+        <v>47.6</v>
+      </c>
+      <c r="I136">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>308</v>
       </c>
@@ -5153,8 +5589,17 @@
       <c r="F137" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="138" spans="1:6">
+      <c r="G137">
+        <v>6</v>
+      </c>
+      <c r="H137">
+        <v>24.6</v>
+      </c>
+      <c r="I137">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>310</v>
       </c>
@@ -5173,8 +5618,17 @@
       <c r="F138" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="139" spans="1:6">
+      <c r="G138">
+        <v>7.8</v>
+      </c>
+      <c r="H138">
+        <v>11.8</v>
+      </c>
+      <c r="I138">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>312</v>
       </c>
@@ -5193,8 +5647,17 @@
       <c r="F139" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="140" spans="1:6">
+      <c r="G139">
+        <v>25.8</v>
+      </c>
+      <c r="H139">
+        <v>44.1</v>
+      </c>
+      <c r="I139">
+        <v>44.8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>314</v>
       </c>
@@ -5213,8 +5676,17 @@
       <c r="F140" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="141" spans="1:6">
+      <c r="G140">
+        <v>-5.9</v>
+      </c>
+      <c r="H140">
+        <v>-14.7</v>
+      </c>
+      <c r="I140">
+        <v>-10.7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>316</v>
       </c>
@@ -5233,8 +5705,17 @@
       <c r="F141" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="142" spans="1:6">
+      <c r="G141">
+        <v>0.4</v>
+      </c>
+      <c r="H141">
+        <v>1.3</v>
+      </c>
+      <c r="I141">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>318</v>
       </c>
@@ -5253,8 +5734,17 @@
       <c r="F142" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="143" spans="1:6">
+      <c r="G142">
+        <v>12</v>
+      </c>
+      <c r="H142">
+        <v>2.6</v>
+      </c>
+      <c r="I142">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>320</v>
       </c>
@@ -5273,8 +5763,17 @@
       <c r="F143" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="144" spans="1:6">
+      <c r="G143">
+        <v>5.2</v>
+      </c>
+      <c r="H143">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="I143">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>322</v>
       </c>
@@ -5293,8 +5792,17 @@
       <c r="F144" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="145" spans="1:6">
+      <c r="G144">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H144">
+        <v>12.1</v>
+      </c>
+      <c r="I144">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>324</v>
       </c>
@@ -5313,8 +5821,17 @@
       <c r="F145" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="146" spans="1:6">
+      <c r="G145">
+        <v>5.4</v>
+      </c>
+      <c r="H145">
+        <v>-2.8</v>
+      </c>
+      <c r="I145">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>326</v>
       </c>
@@ -5333,8 +5850,17 @@
       <c r="F146" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="147" spans="1:6">
+      <c r="G146">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H146">
+        <v>11.6</v>
+      </c>
+      <c r="I146">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>328</v>
       </c>
@@ -5353,8 +5879,17 @@
       <c r="F147" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="148" spans="1:6">
+      <c r="G147">
+        <v>3.4</v>
+      </c>
+      <c r="H147">
+        <v>11.4</v>
+      </c>
+      <c r="I147">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>330</v>
       </c>
@@ -5373,8 +5908,17 @@
       <c r="F148" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="149" spans="1:6">
+      <c r="G148">
+        <v>1.4</v>
+      </c>
+      <c r="H148">
+        <v>1.2</v>
+      </c>
+      <c r="I148">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>332</v>
       </c>
@@ -5393,8 +5937,17 @@
       <c r="F149" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="150" spans="1:6">
+      <c r="G149">
+        <v>4.7</v>
+      </c>
+      <c r="H149">
+        <v>-4.8</v>
+      </c>
+      <c r="I149">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>334</v>
       </c>
@@ -5413,8 +5966,17 @@
       <c r="F150" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="151" spans="1:6">
+      <c r="G150">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H150">
+        <v>1.7</v>
+      </c>
+      <c r="I150">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>336</v>
       </c>
@@ -5433,8 +5995,17 @@
       <c r="F151" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="152" spans="1:6">
+      <c r="G151">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H151">
+        <v>11.1</v>
+      </c>
+      <c r="I151">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>338</v>
       </c>
@@ -5453,8 +6024,17 @@
       <c r="F152" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="153" spans="1:6">
+      <c r="G152">
+        <v>12.9</v>
+      </c>
+      <c r="H152">
+        <v>37.6</v>
+      </c>
+      <c r="I152">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>340</v>
       </c>
@@ -5473,8 +6053,17 @@
       <c r="F153" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="154" spans="1:6">
+      <c r="G153">
+        <v>1.5</v>
+      </c>
+      <c r="H153">
+        <v>0.7</v>
+      </c>
+      <c r="I153">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>342</v>
       </c>
@@ -5493,8 +6082,17 @@
       <c r="F154" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="155" spans="1:6">
+      <c r="G154">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H154">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I154">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>347</v>
       </c>
@@ -5513,8 +6111,17 @@
       <c r="F155" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="156" spans="1:6">
+      <c r="G155">
+        <v>4.7</v>
+      </c>
+      <c r="H155">
+        <v>14.5</v>
+      </c>
+      <c r="I155">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>349</v>
       </c>
@@ -5533,8 +6140,14 @@
       <c r="F156" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="157" spans="1:6">
+      <c r="H156">
+        <v>29.2</v>
+      </c>
+      <c r="I156">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>351</v>
       </c>
@@ -5553,8 +6166,14 @@
       <c r="F157" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="158" spans="1:6">
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>353</v>
       </c>
@@ -5573,8 +6192,11 @@
       <c r="F158" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="159" spans="1:6">
+      <c r="H158">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>355</v>
       </c>
@@ -5593,8 +6215,14 @@
       <c r="F159" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="160" spans="1:6">
+      <c r="G159">
+        <v>0.6</v>
+      </c>
+      <c r="H159">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>357</v>
       </c>
@@ -5613,8 +6241,14 @@
       <c r="F160" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="161" spans="1:6">
+      <c r="G160">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H160">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>359</v>
       </c>
@@ -5633,8 +6267,17 @@
       <c r="F161" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="162" spans="1:6">
+      <c r="G161">
+        <v>5.9</v>
+      </c>
+      <c r="H161">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="I161">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>361</v>
       </c>
@@ -5653,8 +6296,17 @@
       <c r="F162" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="163" spans="1:6">
+      <c r="G162">
+        <v>5.9</v>
+      </c>
+      <c r="H162">
+        <v>11.9</v>
+      </c>
+      <c r="I162">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>363</v>
       </c>
@@ -5673,8 +6325,17 @@
       <c r="F163" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="164" spans="1:6">
+      <c r="G163">
+        <v>4.3</v>
+      </c>
+      <c r="H163">
+        <v>31.3</v>
+      </c>
+      <c r="I163">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>365</v>
       </c>
@@ -5693,8 +6354,17 @@
       <c r="F164" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="165" spans="1:6">
+      <c r="G164">
+        <v>4.7</v>
+      </c>
+      <c r="H164">
+        <v>10.4</v>
+      </c>
+      <c r="I164">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>367</v>
       </c>
@@ -5713,8 +6383,17 @@
       <c r="F165" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="166" spans="1:6">
+      <c r="G165">
+        <v>3.3</v>
+      </c>
+      <c r="H165">
+        <v>10.6</v>
+      </c>
+      <c r="I165">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>369</v>
       </c>
@@ -5733,8 +6412,17 @@
       <c r="F166" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="167" spans="1:6">
+      <c r="G166">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H166">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I166">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>371</v>
       </c>
@@ -5753,8 +6441,17 @@
       <c r="F167" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="168" spans="1:6">
+      <c r="G167">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H167">
+        <v>10.9</v>
+      </c>
+      <c r="I167">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>373</v>
       </c>
@@ -5773,8 +6470,17 @@
       <c r="F168" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="169" spans="1:6">
+      <c r="G168">
+        <v>13.5</v>
+      </c>
+      <c r="H168">
+        <v>44.3</v>
+      </c>
+      <c r="I168">
+        <v>28.3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>375</v>
       </c>
@@ -5793,8 +6499,14 @@
       <c r="F169" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="170" spans="1:6">
+      <c r="G169">
+        <v>1.8</v>
+      </c>
+      <c r="H169">
+        <v>29.7</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>377</v>
       </c>
@@ -5813,8 +6525,17 @@
       <c r="F170" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="171" spans="1:6">
+      <c r="G170">
+        <v>0.8</v>
+      </c>
+      <c r="H170">
+        <v>13.4</v>
+      </c>
+      <c r="I170">
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>379</v>
       </c>
@@ -5833,8 +6554,17 @@
       <c r="F171" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="172" spans="1:6">
+      <c r="G171">
+        <v>2</v>
+      </c>
+      <c r="H171">
+        <v>11.3</v>
+      </c>
+      <c r="I171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>381</v>
       </c>
@@ -5853,8 +6583,17 @@
       <c r="F172" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="173" spans="1:6">
+      <c r="G172">
+        <v>8.4</v>
+      </c>
+      <c r="H172">
+        <v>16.5</v>
+      </c>
+      <c r="I172">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>383</v>
       </c>
@@ -5873,8 +6612,14 @@
       <c r="F173" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="174" spans="1:6">
+      <c r="G173">
+        <v>0.8</v>
+      </c>
+      <c r="H173">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>385</v>
       </c>
@@ -5893,8 +6638,17 @@
       <c r="F174" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="175" spans="1:6">
+      <c r="G174">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H174">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I174">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>387</v>
       </c>
@@ -5913,8 +6667,17 @@
       <c r="F175" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="176" spans="1:6">
+      <c r="G175">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="H175">
+        <v>18.7</v>
+      </c>
+      <c r="I175">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>389</v>
       </c>
@@ -5933,8 +6696,17 @@
       <c r="F176" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="177" spans="1:6">
+      <c r="G176">
+        <v>3.4</v>
+      </c>
+      <c r="H176">
+        <v>0.8</v>
+      </c>
+      <c r="I176">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>391</v>
       </c>
@@ -5953,8 +6725,17 @@
       <c r="F177" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="178" spans="1:6">
+      <c r="G177">
+        <v>2.5</v>
+      </c>
+      <c r="H177">
+        <v>8.5</v>
+      </c>
+      <c r="I177">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>393</v>
       </c>
@@ -5973,8 +6754,14 @@
       <c r="F178" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="179" spans="1:6">
+      <c r="G178">
+        <v>1.2</v>
+      </c>
+      <c r="H178">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>395</v>
       </c>
@@ -5993,8 +6780,17 @@
       <c r="F179" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="180" spans="1:6">
+      <c r="G179">
+        <v>12.8</v>
+      </c>
+      <c r="H179">
+        <v>20</v>
+      </c>
+      <c r="I179">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>397</v>
       </c>
@@ -6013,8 +6809,17 @@
       <c r="F180" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="181" spans="1:6">
+      <c r="G180">
+        <v>4</v>
+      </c>
+      <c r="H180">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="I180">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>399</v>
       </c>
@@ -6033,8 +6838,17 @@
       <c r="F181" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="182" spans="1:6">
+      <c r="G181">
+        <v>3.8</v>
+      </c>
+      <c r="H181">
+        <v>9</v>
+      </c>
+      <c r="I181">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>401</v>
       </c>
@@ -6053,8 +6867,17 @@
       <c r="F182" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="183" spans="1:6">
+      <c r="G182">
+        <v>0.6</v>
+      </c>
+      <c r="H182">
+        <v>20</v>
+      </c>
+      <c r="I182">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>403</v>
       </c>
@@ -6073,8 +6896,17 @@
       <c r="F183" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="184" spans="1:6">
+      <c r="G183">
+        <v>5</v>
+      </c>
+      <c r="H183">
+        <v>14.1</v>
+      </c>
+      <c r="I183">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>405</v>
       </c>
@@ -6093,8 +6925,17 @@
       <c r="F184" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="185" spans="1:6">
+      <c r="G184">
+        <v>9.4</v>
+      </c>
+      <c r="H184">
+        <v>24.1</v>
+      </c>
+      <c r="I184">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>407</v>
       </c>
@@ -6113,8 +6954,17 @@
       <c r="F185" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="186" spans="1:6">
+      <c r="G185">
+        <v>3.1</v>
+      </c>
+      <c r="H185">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="I185">
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>409</v>
       </c>
@@ -6133,8 +6983,17 @@
       <c r="F186" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="187" spans="1:6">
+      <c r="G186">
+        <v>3.3</v>
+      </c>
+      <c r="H186">
+        <v>15.5</v>
+      </c>
+      <c r="I186">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>411</v>
       </c>
@@ -6153,8 +7012,17 @@
       <c r="F187" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="188" spans="1:6">
+      <c r="G187">
+        <v>7.4</v>
+      </c>
+      <c r="H187">
+        <v>24.1</v>
+      </c>
+      <c r="I187">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>412</v>
       </c>
@@ -6173,8 +7041,17 @@
       <c r="F188" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="189" spans="1:6">
+      <c r="G188">
+        <v>12.8</v>
+      </c>
+      <c r="H188">
+        <v>25.9</v>
+      </c>
+      <c r="I188">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>413</v>
       </c>
@@ -6193,8 +7070,17 @@
       <c r="F189" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="190" spans="1:6">
+      <c r="G189">
+        <v>1.4</v>
+      </c>
+      <c r="H189">
+        <v>-6.1</v>
+      </c>
+      <c r="I189">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>415</v>
       </c>
@@ -6213,8 +7099,17 @@
       <c r="F190" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="191" spans="1:6">
+      <c r="G190">
+        <v>14</v>
+      </c>
+      <c r="H190">
+        <v>25.5</v>
+      </c>
+      <c r="I190">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>417</v>
       </c>
@@ -6233,8 +7128,17 @@
       <c r="F191" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="192" spans="1:6">
+      <c r="G191">
+        <v>4</v>
+      </c>
+      <c r="H191">
+        <v>14.1</v>
+      </c>
+      <c r="I191">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>419</v>
       </c>
@@ -6253,8 +7157,14 @@
       <c r="F192" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="193" spans="1:6">
+      <c r="G192">
+        <v>1.2</v>
+      </c>
+      <c r="H192">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>421</v>
       </c>
@@ -6272,6 +7182,15 @@
       </c>
       <c r="F193" t="s">
         <v>346</v>
+      </c>
+      <c r="G193">
+        <v>1.9</v>
+      </c>
+      <c r="H193">
+        <v>14.5</v>
+      </c>
+      <c r="I193">
+        <v>15.2</v>
       </c>
     </row>
   </sheetData>
